--- a/data/case1/9/Qlm2_14.xlsx
+++ b/data/case1/9/Qlm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.30503501769806007</v>
+        <v>-0.25132410141365114</v>
       </c>
       <c r="B1" s="0">
-        <v>0.30472625360272332</v>
+        <v>0.25110367288657898</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.23313828404093506</v>
+        <v>-0.22900203886646153</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2322369135456821</v>
+        <v>0.22809334693160821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13003510612920266</v>
+        <v>-0.13414531606837699</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12970373923808864</v>
+        <v>0.13389476335503225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12170373933546941</v>
+        <v>-0.12589476345188189</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12113995965905744</v>
+        <v>0.12507651544148679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.11813995972007785</v>
+        <v>-0.084011329795849576</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11620744590396814</v>
+        <v>0.082804369681296563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.016979784575012147</v>
+        <v>-0.039187556606128382</v>
       </c>
       <c r="B6" s="0">
-        <v>0.016787720711157306</v>
+        <v>0.038835326932463943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.006787720852320156</v>
+        <v>-0.028835327067985084</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0067538015244688054</v>
+        <v>0.028758500994626068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0032461983335685396</v>
+        <v>-0.018758501133382399</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0032808934816661584</v>
+        <v>0.018645447286584016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0052808934085493142</v>
+        <v>-0.016645447360402965</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0053025781570221753</v>
+        <v>0.016560305715823009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0073025780845732413</v>
+        <v>-0.014560305792738149</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0073022561152011889</v>
+        <v>0.014557054426099114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.010302256034207424</v>
+        <v>-0.011557054511554199</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.010302879462963155</v>
+        <v>0.011550889058934644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.013802879378139732</v>
+        <v>-0.008050889149281204</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.013818691685750117</v>
+        <v>0.0080101760407047529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.017318691603890102</v>
+        <v>-0.0045101761332810852</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.017332457404256374</v>
+        <v>0.0044985009519882269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.025332457285111687</v>
+        <v>0.0035014989164352528</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0253609181229697</v>
+        <v>-0.0035017689938721119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.026360918065965855</v>
+        <v>-0.0080524472134415603</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.026399977843449385</v>
+        <v>0.008034224780068655</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.028399977780859675</v>
+        <v>-0.0060342248612812455</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.028569553997558561</v>
+        <v>0.0060032119353343738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.030569553941094618</v>
+        <v>-0.0040032120180404362</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.030643015352487701</v>
+        <v>0.003999999899774842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.06558796961693858</v>
+        <v>-0.016101634074534132</v>
       </c>
       <c r="B18" s="0">
-        <v>0.065520483933308782</v>
+        <v>0.016090817514808009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.06152048397264398</v>
+        <v>-0.01209081755242547</v>
       </c>
       <c r="B19" s="0">
-        <v>0.061017565872024893</v>
+        <v>0.012016033648514668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.057017565925733038</v>
+        <v>-0.0080160336889409933</v>
       </c>
       <c r="B20" s="0">
-        <v>0.056878388330096286</v>
+        <v>0.0080055446281441789</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.012796384705709762</v>
+        <v>-0.0040055446690150376</v>
       </c>
       <c r="B21" s="0">
-        <v>0.012779116578673921</v>
+        <v>0.0039999999587747581</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.098201807472914737</v>
+        <v>-0.045707556231919355</v>
       </c>
       <c r="B22" s="0">
-        <v>0.097570274547701175</v>
+        <v>0.045495858324899885</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04049822044431739</v>
+        <v>-0.040495858391897954</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098767064874252</v>
+        <v>0.040098282900659754</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098767270249951</v>
+        <v>-0.020098283101924075</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999791981082</v>
+        <v>0.019999999796017853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097227661400872023</v>
+        <v>-0.04161681314070087</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097105388544219906</v>
+        <v>0.041592170048858179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094605388622872155</v>
+        <v>-0.039092170119214842</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094447012603568581</v>
+        <v>0.039063216118211841</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091947012686067975</v>
+        <v>-0.036563216189715142</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091003672689489612</v>
+        <v>0.036402539930092459</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089003672786957644</v>
+        <v>-0.034402540004005999</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088357988899412376</v>
+        <v>0.034307123524540906</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.08135798905223357</v>
+        <v>-0.027307123645699427</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081171138253028019</v>
+        <v>0.027290002980227435</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021171138866279193</v>
+        <v>0.032709996443627265</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022343069913685</v>
+        <v>-0.032779378393593905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022343232996448</v>
+        <v>0.039779378275424548</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000882514292101</v>
+        <v>-0.039823170188501678</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008827037976147</v>
+        <v>-0.0040008795237191919</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998617101795</v>
+        <v>0.0039999999092437122</v>
       </c>
     </row>
   </sheetData>
